--- a/MHUD.xlsx
+++ b/MHUD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\MHUD-developer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MYSCHOOL\MHUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0EA0DA-8204-46EB-9BE2-61AE563390D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mã Hóa Ứng Dụng" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Status Tracker</t>
   </si>
@@ -136,13 +129,22 @@
     <t>Trí Encryption, Dậu Decryption</t>
   </si>
   <si>
-    <t>Base on 2. In Process</t>
+    <t>26/3/2021</t>
+  </si>
+  <si>
+    <t>25/3/2021</t>
+  </si>
+  <si>
+    <t>23/3/2021</t>
+  </si>
+  <si>
+    <t>Base on 2. In Process, Done for Tri Truong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,14 +223,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,37 +545,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -592,19 +594,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -625,19 +627,19 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2.1</v>
       </c>
@@ -658,7 +660,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -679,7 +681,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -700,7 +702,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2.4</v>
       </c>
@@ -721,7 +723,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2.5</v>
       </c>
@@ -742,7 +744,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2.6</v>
       </c>
@@ -752,27 +754,31 @@
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10">
-        <v>44637</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>3.1</v>
       </c>
@@ -782,12 +788,18 @@
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>3.2</v>
       </c>
@@ -797,12 +809,18 @@
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>3.3</v>
       </c>
@@ -817,7 +835,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>3.4</v>
       </c>
@@ -827,12 +845,18 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3.5</v>
       </c>
@@ -846,10 +870,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>

--- a/MHUD.xlsx
+++ b/MHUD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MYSCHOOL\MHUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\MHUD-developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0EA0DA-8204-46EB-9BE2-61AE563390D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Mã Hóa Ứng Dụng" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Status Tracker</t>
   </si>
@@ -129,22 +136,13 @@
     <t>Trí Encryption, Dậu Decryption</t>
   </si>
   <si>
-    <t>26/3/2021</t>
-  </si>
-  <si>
-    <t>25/3/2021</t>
-  </si>
-  <si>
-    <t>23/3/2021</t>
-  </si>
-  <si>
-    <t>Base on 2. In Process, Done for Tri Truong</t>
+    <t>Base on 2. In Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,14 +221,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,37 +543,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -594,19 +592,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -627,19 +625,19 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2.1</v>
       </c>
@@ -660,7 +658,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -681,7 +679,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -702,7 +700,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2.4</v>
       </c>
@@ -723,7 +721,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2.5</v>
       </c>
@@ -744,7 +742,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2.6</v>
       </c>
@@ -754,31 +752,27 @@
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D12" s="10">
+        <v>44637</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3.1</v>
       </c>
@@ -788,18 +782,12 @@
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3.2</v>
       </c>
@@ -809,18 +797,12 @@
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3.3</v>
       </c>
@@ -835,7 +817,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3.4</v>
       </c>
@@ -845,18 +827,12 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3.5</v>
       </c>
@@ -870,10 +846,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
